--- a/DigitalTwinsReview_ASEE2025_LiteratureAnalysis.xlsx
+++ b/DigitalTwinsReview_ASEE2025_LiteratureAnalysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365-my.sharepoint.com/personal/mpk6311_psu_edu/Documents/ASEE2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="14_{4FFDF52A-4FB0-43B1-AE12-A4F207630662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{428C32F1-BAC6-412E-8996-E4C950B15EDB}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="14_{4FFDF52A-4FB0-43B1-AE12-A4F207630662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08BE8B16-DF08-4D4C-B875-A8C4EA6F64B2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="357">
   <si>
     <t>Data Source</t>
   </si>
@@ -595,325 +597,10 @@
     <t>Medicine</t>
   </si>
   <si>
-    <t>Included</t>
-  </si>
-  <si>
-    <t>Digital twins in civil and environmental engineering classrooms</t>
-  </si>
-  <si>
-    <t>Chacón Flores et al.</t>
-  </si>
-  <si>
-    <t>Civil Engineering Education</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Class students</t>
-  </si>
-  <si>
-    <t>Educational case studies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Students used Different tools such as electronic prototyping boards and computers (Arduino, Raspberry Pi), 3D printers, Web-based or desktop-based graphical user interfaces (GUI) to integrate sensors into physical components and </t>
-  </si>
-  <si>
-    <t>DT development for Civil and construction processes</t>
-  </si>
-  <si>
-    <t>good example for detailed discussion</t>
-  </si>
-  <si>
-    <t>Platform for industrial internet and digital twin focused education, research, and innovation: Ilmatar the overhead crane</t>
-  </si>
-  <si>
-    <t>Autiosalo</t>
-  </si>
-  <si>
-    <t>IEEE World Forum on Internet of Things</t>
-  </si>
-  <si>
-    <t>Engineering Education (Industrial Engineering)</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Experimentable Digital Twins—Streamlining Simulation-Based Systems Engineering for Industry 4.0</t>
-  </si>
-  <si>
-    <t>Schluse et al.</t>
-  </si>
-  <si>
-    <t>IEEE TRANSACTIONS ON INDUSTRIAL INFORMATICS</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Case study</t>
-  </si>
-  <si>
-    <t>building digital twin infrastructure for educational, research and industrial use</t>
-  </si>
-  <si>
-    <t>An undergraduate course on product design methodology  used the crane platform as a learning environment.</t>
-  </si>
-  <si>
-    <t>Learning Experiences Involving Digital Twins</t>
-  </si>
-  <si>
-    <t>David et al.</t>
-  </si>
-  <si>
-    <t>IEEE Industrial Electronics Society</t>
-  </si>
-  <si>
-    <t>Cognitive modes of learning while working with digital twins</t>
-  </si>
-  <si>
-    <t>the paper investigates how situational awareness can be beneficial in such an environment and its contribution to the overall learning experience</t>
-  </si>
-  <si>
-    <t>This paper proposes the use of Digital Twins as a tool for training students on production based systems and justifies the proposition by instantiating learning theories within a pedagogical digital twin framework.</t>
-  </si>
-  <si>
-    <t>Early Stage Digital Twins for Early Stage Engineering Design</t>
-  </si>
-  <si>
-    <t>Jones et al.</t>
-  </si>
-  <si>
-    <t>INTERNATIONAL CONFERENCE ON ENGINEERING DESIGN</t>
-  </si>
-  <si>
-    <t>Engineering Design</t>
-  </si>
-  <si>
-    <t>"The digital twin is a virtual representation of a physical artefact that contains all the information required to fully describe it."</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>Studied the applications of digital twins at the early stages of design</t>
-  </si>
-  <si>
-    <t>Digital Twins for Education and Study of Engineering Sciences</t>
-  </si>
-  <si>
-    <t>Zacher</t>
-  </si>
-  <si>
-    <t>International Journal on Engineering, Science and Technology</t>
-  </si>
-  <si>
-    <t>"..software-model as a prototype for some product, ordered by a customer"</t>
-  </si>
-  <si>
-    <t>Instructional Case Study</t>
-  </si>
-  <si>
-    <t>Easy preparation for training or experiments. No hardware is required to be installed or tested. An unlimited number of people can work with digital twins and apply them. The internship with digital twins can be made as comfortable as in classic laboratory rooms.</t>
-  </si>
-  <si>
-    <t>Digital Twin and Web-Based Virtual Gaming Technologies for Online Education: A Case of Construction Management and Engineering</t>
-  </si>
-  <si>
-    <t>Sepasgozar</t>
-  </si>
-  <si>
-    <t>Using Digital Twin Technology in Engineering Education – Course Concept to Explore Benefits and Barriers</t>
-  </si>
-  <si>
-    <t>Liljaniemi and Paavilainen</t>
-  </si>
-  <si>
-    <t>Open Engineering</t>
-  </si>
-  <si>
-    <t>Digital Twins: State-of-the-Art and Future Directions for Modeling and Simulation in Engineering Dynamics Applications</t>
-  </si>
-  <si>
-    <t>Wagg et al.</t>
-  </si>
-  <si>
-    <t>ASCE-ASME J Risk and Uncert in Engrg Sys Part B Mech Engrg</t>
-  </si>
-  <si>
-    <t>Mechanical Engineering</t>
-  </si>
-  <si>
-    <t>A Theoretical Analysis Method of Spatial Analytic Geometry and Mathematics under Digital Twins</t>
-  </si>
-  <si>
-    <t>Wang</t>
-  </si>
-  <si>
-    <t>Advances in Civil Engineering</t>
-  </si>
-  <si>
-    <t>Civil Engineering</t>
-  </si>
-  <si>
-    <t>Engineering Education and Cloud-Based Digital Twins for Electric Power Drive System Diagnostics</t>
-  </si>
-  <si>
-    <t>Rassudov et al.</t>
-  </si>
-  <si>
-    <t>International Workshop on Electric Drives: Improving Reliability of Electric Drives</t>
-  </si>
-  <si>
-    <t>A review of digital twin in product design and development</t>
-  </si>
-  <si>
-    <t>Lo et al.</t>
-  </si>
-  <si>
-    <t>Advanced Engineering Informatics</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Digital Twins by Study and Engineering</t>
-  </si>
-  <si>
-    <t>South Florida Journal of Development</t>
-  </si>
-  <si>
-    <t>Education as a way to create skills in the knowledge economy using the example of BIM technologies in the era of digital twins and digital pedagogy (EDTECH)</t>
-  </si>
-  <si>
-    <t>Pokusaev et al.</t>
-  </si>
-  <si>
-    <t>International Journal of Open Information Technologies</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Digital Twins Enabled Remote Laboratory Learning Experience for Mechatronics Education</t>
-  </si>
-  <si>
-    <t>Guc et al.</t>
-  </si>
-  <si>
-    <t>International Conference on Digital Twins and Parallel Intelligence</t>
-  </si>
-  <si>
-    <t>Engineering Education (Mechatronics)</t>
-  </si>
-  <si>
-    <t>Digital Twins for Personalized Education and Lifelong Learning</t>
-  </si>
-  <si>
-    <t>Kinsner</t>
-  </si>
-  <si>
-    <t>Canadian Conference on Electrical and Computer Engineering (CCECE)</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>STEAM activities for civil engineering curricula. From Calculus to Digital Twins</t>
-  </si>
-  <si>
-    <t>Chacón and Estela</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IEEE Frontiers in Education Conference (FIE)</t>
-  </si>
-  <si>
-    <t>Digital Twins of Building Physics Experimental Laboratory Setups for Effective E-learning</t>
-  </si>
-  <si>
-    <t>Johra et al.</t>
-  </si>
-  <si>
-    <t>Journal of Physics</t>
-  </si>
-  <si>
-    <t>Digital Visual Sensing Design Teaching Using Digital Twins</t>
-  </si>
-  <si>
-    <t>Lian and Yan</t>
-  </si>
-  <si>
-    <t>ReImagine Lab: Bridging the Gap Between Hands-On, Virtual and Remote Control Engineering Laboratories Using Digital Twins and Extended Reality</t>
-  </si>
-  <si>
-    <t>Alsaleh et al.</t>
-  </si>
-  <si>
-    <t>Digital Twins in Contemporary Education: Virtual Workshop</t>
-  </si>
-  <si>
-    <t>Balyakin et al.</t>
-  </si>
-  <si>
-    <t>Perspectives and Trends in Education and Technology</t>
-  </si>
-  <si>
-    <t>Applying Digital Twin Technology in Higher Education: An Automation Line Case Study</t>
-  </si>
-  <si>
-    <t>Eriksson et al.</t>
-  </si>
-  <si>
-    <t>Engineering Educaiton</t>
-  </si>
-  <si>
-    <t>The role of Digital Twin technology in transforming engineering education</t>
-  </si>
-  <si>
-    <t>Maksimović and Davidović</t>
-  </si>
-  <si>
-    <t>Online (Remote) Teaching for Laboratory Based Courses Using “Digital Twins” of the Experiments</t>
-  </si>
-  <si>
-    <t>Deniz et al.</t>
-  </si>
-  <si>
-    <t>Journal of Engineering for Gas Turbines and Power</t>
-  </si>
-  <si>
-    <t>Transformation of education through Big Data: digital twins case study</t>
-  </si>
-  <si>
-    <t>Andreasyan and Balyakin</t>
-  </si>
-  <si>
-    <t>Digital twins as education support in construction: a first development framework based on the Reference Construction Site Aachen West</t>
-  </si>
-  <si>
-    <t>Dai and Brell-Çokcan</t>
-  </si>
-  <si>
-    <t>Construction Robotics</t>
-  </si>
-  <si>
-    <t>Common Educational Teleoperation Platform for Robotics Utilizing Digital Twins</t>
-  </si>
-  <si>
-    <t>Kaarlela et al.</t>
-  </si>
-  <si>
-    <t>Using mixed reality based digital twins for robotics education</t>
-  </si>
-  <si>
-    <t>Orsolits et al.</t>
-  </si>
-  <si>
-    <t>International Symposium on Mixed and Augmented Reality Adjunct</t>
-  </si>
-  <si>
     <t>"...digital twin technology enables the creation of computerized patient replicas, simulating diverse clinical scenarios and intervention testing in silico to reduce avoidable risk in real patients." (p. 1)</t>
+  </si>
+  <si>
+    <t>Internal medicine students</t>
   </si>
   <si>
     <t>This study comprised three sequential phases:  1) Design and coding of a digital twin patient model based on EHR clinical variables and expert rules to simulate patient trajectories during the initial 6 h of critical illness. 2) Development of the user interface for an iOS digital twin application software designed for critical care education delivery. 3) Usability testing of the digital twin application software with a cohort of internal medicine residents and collection of user feedback for iterative software improvement.</t>
@@ -931,9 +618,6 @@
 </t>
   </si>
   <si>
-    <t>Internal medicine students</t>
-  </si>
-  <si>
     <t>Use of Digital Twin Technology in the TeachingLearning Process, in the field of University Education: A Bibliometric Review</t>
   </si>
   <si>
@@ -970,12 +654,221 @@
     <t>Education</t>
   </si>
   <si>
-    <t>"The digital twin concept is based on the convergence of physical and virtual worlds, where each object receives its dynamic digital representation (imprint)" (4190.</t>
+    <t>"DT is a stateof-the-art technology that creates a digital replica of a physical entity, process, or system" (p. 411)</t>
   </si>
   <si>
     <t>Ukraine</t>
   </si>
   <si>
+    <t>Previously published scholarly works.</t>
+  </si>
+  <si>
+    <t>Discusses the use of digital applications of blended learning and is leveraging these approaches at Digital Twins. Specifically focusing on studies employed during COVID-19.</t>
+  </si>
+  <si>
+    <t>Suggest to exclude.</t>
+  </si>
+  <si>
+    <t>Digital Twins and Engineering Education: Current Status</t>
+  </si>
+  <si>
+    <t>Shaikh, M. K.</t>
+  </si>
+  <si>
+    <t>International Journal of Innovation in Science &amp; Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"digital replicas of physical systems employing sensors and 3D modeling to create virtual representations" (p. 460). </t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83 previously published research papers, spanning 2012 - 2022. </t>
+  </si>
+  <si>
+    <t>DT is not implemented in this article. The author conducted a systematized literature reivew, where they originally captured 127 research papers and after screening, went on to review 83 articles.</t>
+  </si>
+  <si>
+    <t>There is no context of use for DT in this paper. Literature review.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The authors found that digital twin technology has seen a rapid increase in adoption within engineering education, with the majority of publications (31) occurring in 2022, while earlier years (2018-2021) had fewer contributions. The technology has been applied across a wide range of disciplines, including electrical, civil, mechatronics, robotics, and marine engineering, as well as emerging areas like cyber-physical systems, virtual reality, and cybersecurity. Key applications identified include simulating product development, creating virtual learning environments for flexible manufacturing systems, enabling remote campus operations, and utilizing holographic classrooms and virtual labs. Additionally, digital twins have been used to teach construction techniques, marine technology, process engineering, and advanced training, such as developing digital twins of data centers and manufacturing systems for assisted learning. These findings emphasize the growing role of digital twins in transforming engineering education through innovative and interactive learning solutions.
+</t>
+  </si>
+  <si>
+    <t>May be a great paper to look into for formatting this one.</t>
+  </si>
+  <si>
+    <t>Immersive Digital Twins of an Industrial Forge in Engineering Education</t>
+  </si>
+  <si>
+    <t>Fleury, S., Baudouin, C., &amp; Bondesan, P.</t>
+  </si>
+  <si>
+    <t>20th International CDIO Conference</t>
+  </si>
+  <si>
+    <t>Students enrolled in a course that employed the authors use of a virtual learning environment, called the JENII project. They call it a "immersive and interactive digital twins"</t>
+  </si>
+  <si>
+    <t>Digital twins is implemented though what the authors call a immersive and interative digital twin, called the JENII project. Using VR, pedagogical agents (virtual entities with social skills), and attentional guidance, the DT in the study is a virtual class that feastures a learning medium for students. I believe this paper is more conceptual rather than empirical. It offers a theoretical DT implementation.</t>
+  </si>
+  <si>
+    <t>DT is implemented Theoretically. The authors discuss what they envinsion as a DT.</t>
+  </si>
+  <si>
+    <t>Digital Twins Empower Higher Education</t>
+  </si>
+  <si>
+    <t>Lei, J., Song, J.-Q., &amp; Wang, J.-Y.</t>
+  </si>
+  <si>
+    <t>Journal of General Education and Humanities</t>
+  </si>
+  <si>
+    <t>"Digital twins are an innovative technology that integrates virtual simulation, data analysis, artificial intelligence, and other technologies" (p. 273)</t>
+  </si>
+  <si>
+    <t>Did not state.</t>
+  </si>
+  <si>
+    <t>Not stated.</t>
+  </si>
+  <si>
+    <t>DT not used. Literature review.</t>
+  </si>
+  <si>
+    <t>The study found that digital twin technology has broad applications in higher education, offering significant advantages in teaching optimization, personalized education, intelligent tutoring, resource sharing, and efficiency improvement. Digital twins optimize teaching environments and equipment, enhancing students’ learning interest and practical skills through virtual simulations and experiments. They enable real-time personalized learning plans and resources tailored to individual habits and abilities, improving learning outcomes. Additionally, digital twin technology facilitates intelligent tutoring by analyzing learning data to provide real-time feedback and guidance, helping students better master knowledge. It also supports online collaboration and resource sharing, fostering teamwork, interaction, and communication skills among students. By reducing costs associated with traditional laboratory equipment and improving the efficiency and accuracy of information transfer, digital twins enhance teaching efficiency. Furthermore, they provide an intuitive and vivid learning experience, deepening students’ understanding of concepts, enhancing memory retention, and stimulating enthusiasm and initiative in learning. These benefits collectively promote teaching innovation, improve the integration and sharing of resources, and enrich the overall learning experience in higher education.</t>
+  </si>
+  <si>
+    <t>Application of the digital twin model in higher education</t>
+  </si>
+  <si>
+    <t>Selim, A., Ali, I., Saracevic, M., &amp; Ristevski, B.</t>
+  </si>
+  <si>
+    <t>Multimedia Tools and Applications</t>
+  </si>
+  <si>
+    <t>"Digital twins are virtual replicants of physical products that model actual product behavior in real-time and serve to detect possible flaws and problems" (p. 2)</t>
+  </si>
+  <si>
+    <t>North Macedonia (Europe)</t>
+  </si>
+  <si>
+    <t>652 students across five departments at International University in North Macedonia. Data is from final exam results from 2020 (in-person), and 2021 (online).</t>
+  </si>
+  <si>
+    <t>The research study focused on identifying the factors that influenced students' academic success in online learning environments, particularly during the shift from traditional face-to-face instruction to online modalities. The goal was to explore key variables, such as course design, access to resources, self-regulation, and engagement, to understand their impact on exam performance. A mixed-methods approach was utilized, combining quantitative analysis of performance data (e.g., exam scores, participation metrics) with qualitative insights from surveys and interviews. By analyzing these factors and patterns, the study aimed to recommend strategies to enhance student outcomes in online education.</t>
+  </si>
+  <si>
+    <t>The DT in this study is considered a digital twin model. 
+The digital twin model, implemented as a University Information System (UIS), functioned as a client/server web solution accessible via standard web browsers without requiring local mobile applications. It integrated information, functionality, and instructional requirements into a single system, allowing users to interact with personalized interfaces based on their roles (e.g., students, professors, staff). Key functionalities included NFC-based authentication, role-based access to information (e.g., grades, documents), and seamless integration with Office 365 for a secure, efficient, and user-friendly educational experience.</t>
+  </si>
+  <si>
+    <t>Context of use for DT in this study is as a pedagogical, digital learning environment model.</t>
+  </si>
+  <si>
+    <t>The study found that the digital twin model, implemented as the University Information System (UIS), plays a crucial role in supporting education, especially during transitions to online learning and the pandemic. The model enhances student success by providing personalized learning experiences, rapid feedback, and adaptive instructional tools. However, while it shows promise, its impact varies based on institutional context, and further research is needed to generalize its effectiveness across different settings.</t>
+  </si>
+  <si>
+    <t>Applications of augmented reality (AR) in chemical engineering educatoin: Virtual laboratory work demonstration to digital twin development</t>
+  </si>
+  <si>
+    <t>Zhou, Z., Oveissi, F., &amp; Langrish, T.</t>
+  </si>
+  <si>
+    <t>Computers &amp; Chemical Engineering</t>
+  </si>
+  <si>
+    <t>Chemical Engineering</t>
+  </si>
+  <si>
+    <t>"Digital Twin is referred to as a digital representation of physical devices (e.g. bioreactor) which can be used to predict the behaviour of the device in the real world" (p. 5).</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n this study, the research team explores the creation and implementation of a digital twin for the Buchi 290 mini spray dryer. The digital twin serves as a virtual replica of the physical spray drying system, integrating real-time operational data, equipment performance metrics, and material flow dynamics. By leveraging advanced modeling techniques, the digital twin allows researchers to simulate various scenarios, predict process outcomes, and optimize system performance without physical experimentation. The goal is to enhance process efficiency, minimize energy consumption, and improve product quality through real-time feedback loops and predictive analytics. This digital twin represents a critical step towards more intelligent manufacturing systems, where machine performance can be continuously monitored and adjusted based on dynamic operational conditions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first step in developing an AR experience involved creating a three-dimensional (3D) model of the air flow equipment using AutoCAD, simplifying the model by removing non-essential components such as flanges and bolts to focus on key elements for simulations.
+</t>
+  </si>
+  <si>
+    <t>The development of the AR experience for both the airflow equipment and the Buchi B290 mini spray dryer involved creating a 3D model using CAD software, such as AutoCAD. The models were simplified to focus on key components essential for simulations. Computational Fluid Dynamics (CFD) simulations were then conducted to visualize airflow patterns. These simulations were integrated into the AR experiences to provide an intuitive and interactive way for students to understand complex processes. Animations demonstrating assembly steps were also developed, and anchoring options, like spatial and model targets, were chosen based on the equipment's geometry. Overall, the AR experience enhances learning by combining 3D visualizations, simulations, and interactive animations to support advanced chemical engineering experiments.</t>
+  </si>
+  <si>
+    <t>The concept of digital twins was introduced to students at the beginning of the module, highlighting its application as a digital representation of physical devices, such as bioreactors, used to predict real-world behavior. To bridge the gap for students unfamiliar with AR experiences, a practical learning exercise was conducted using a smartphone AR demo, showcasing interactive features like pop-ups, buttons, and animations. Vuforia Studio by PTC was chosen as the software for developing AR experiences due to its accessibility and ease of use. Students first learned the basic operations of Vuforia in lectures and tutorials, where they practiced by reproducing the "Smartphone" AR demo. In addition to the technical aspects, the course included design philosophy focused on responsible and sustainable practices, emphasizing the use of color codes that are user-friendly and color-blind accessible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The authors found that Augmented Reality (AR) can significantly enhance chemical engineering education by visualizing complex phenomena, such as airflow and spray drying processes, through immersive simulations. They discovered that integrating AR with Computational Fluid Dynamics (CFD) simulations provides a more intuitive understanding of flow patterns, compared to traditional 2D images. Additionally, AR experiences serve as a practical tool for training students on high-value equipment, reducing the risk of damage due to mishandling. However, they also identified challenges in using AR development kits, including technical difficulties, usability issues, and the need for advanced coding skills. The authors concluded that while AR offers great potential as a supplementary educational tool, its effectiveness is influenced by the stability and accessibility of development software. Overall, AR serves as a valuable means of combining theoretical knowledge with hands-on learning, preparing students for future industry applications.
+</t>
+  </si>
+  <si>
+    <t>Digital Twins Applications in STEM Education: Challenges and Implementation Opportunities in Developing Countries</t>
+  </si>
+  <si>
+    <t>Caribo, O., Sibomana, L., Byungura, J., Asingwire, B. K., &amp; Niyizamwiyitira, C.</t>
+  </si>
+  <si>
+    <t>2024 IEEE Digital Education and MOOCS Conference</t>
+  </si>
+  <si>
+    <t>STEM Education</t>
+  </si>
+  <si>
+    <t>Included</t>
+  </si>
+  <si>
+    <t>Digital twins in civil and environmental engineering classrooms</t>
+  </si>
+  <si>
+    <t>Chacón Flores et al.</t>
+  </si>
+  <si>
+    <t>Civil Engineering Education</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Class students</t>
+  </si>
+  <si>
+    <t>Educational case studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students used Different tools such as electronic prototyping boards and computers (Arduino, Raspberry Pi), 3D printers, Web-based or desktop-based graphical user interfaces (GUI) to integrate sensors into physical components and </t>
+  </si>
+  <si>
+    <t>DT development for Civil and construction processes</t>
+  </si>
+  <si>
+    <t>good example for detailed discussion</t>
+  </si>
+  <si>
+    <t>Platform for industrial internet and digital twin focused education, research, and innovation: Ilmatar the overhead crane</t>
+  </si>
+  <si>
+    <t>Autiosalo</t>
+  </si>
+  <si>
+    <t>IEEE World Forum on Internet of Things</t>
+  </si>
+  <si>
+    <t>Engineering Education (Industrial Engineering)</t>
+  </si>
+  <si>
+    <t>Not defined</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
     <t>Not implemented</t>
   </si>
   <si>
@@ -985,7 +878,277 @@
     <t>Results describe experience-based observations on how university should manage an education, research, and innovation platform while collaborating with industry partners.</t>
   </si>
   <si>
-    <t>Not defined</t>
+    <t>Experimentable Digital Twins—Streamlining Simulation-Based Systems Engineering for Industry 4.0</t>
+  </si>
+  <si>
+    <t>Schluse et al.</t>
+  </si>
+  <si>
+    <t>IEEE TRANSACTIONS ON INDUSTRIAL INFORMATICS</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Case study</t>
+  </si>
+  <si>
+    <t>building digital twin infrastructure for educational, research and industrial use</t>
+  </si>
+  <si>
+    <t>An undergraduate course on product design methodology  used the crane platform as a learning environment.</t>
+  </si>
+  <si>
+    <t>Learning Experiences Involving Digital Twins</t>
+  </si>
+  <si>
+    <t>David et al.</t>
+  </si>
+  <si>
+    <t>IEEE Industrial Electronics Society</t>
+  </si>
+  <si>
+    <t>Cognitive modes of learning while working with digital twins</t>
+  </si>
+  <si>
+    <t>the paper investigates how situational awareness can be beneficial in such an environment and its contribution to the overall learning experience</t>
+  </si>
+  <si>
+    <t>This paper proposes the use of Digital Twins as a tool for training students on production based systems and justifies the proposition by instantiating learning theories within a pedagogical digital twin framework.</t>
+  </si>
+  <si>
+    <t>Early Stage Digital Twins for Early Stage Engineering Design</t>
+  </si>
+  <si>
+    <t>Jones et al.</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL CONFERENCE ON ENGINEERING DESIGN</t>
+  </si>
+  <si>
+    <t>Engineering Design</t>
+  </si>
+  <si>
+    <t>"The digital twin is a virtual representation of a physical artefact that contains all the information required to fully describe it."</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Studied the applications of digital twins at the early stages of design</t>
+  </si>
+  <si>
+    <t>Digital Twins for Education and Study of Engineering Sciences</t>
+  </si>
+  <si>
+    <t>Zacher</t>
+  </si>
+  <si>
+    <t>International Journal on Engineering, Science and Technology</t>
+  </si>
+  <si>
+    <t>"..software-model as a prototype for some product, ordered by a customer"</t>
+  </si>
+  <si>
+    <t>Instructional Case Study</t>
+  </si>
+  <si>
+    <t>Easy preparation for training or experiments. No hardware is required to be installed or tested. An unlimited number of people can work with digital twins and apply them. The internship with digital twins can be made as comfortable as in classic laboratory rooms.</t>
+  </si>
+  <si>
+    <t>Digital Twin and Web-Based Virtual Gaming Technologies for Online Education: A Case of Construction Management and Engineering</t>
+  </si>
+  <si>
+    <t>Sepasgozar</t>
+  </si>
+  <si>
+    <t>Using Digital Twin Technology in Engineering Education – Course Concept to Explore Benefits and Barriers</t>
+  </si>
+  <si>
+    <t>Liljaniemi and Paavilainen</t>
+  </si>
+  <si>
+    <t>Open Engineering</t>
+  </si>
+  <si>
+    <t>Digital Twins: State-of-the-Art and Future Directions for Modeling and Simulation in Engineering Dynamics Applications</t>
+  </si>
+  <si>
+    <t>Wagg et al.</t>
+  </si>
+  <si>
+    <t>ASCE-ASME J Risk and Uncert in Engrg Sys Part B Mech Engrg</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>A Theoretical Analysis Method of Spatial Analytic Geometry and Mathematics under Digital Twins</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>Advances in Civil Engineering</t>
+  </si>
+  <si>
+    <t>Civil Engineering</t>
+  </si>
+  <si>
+    <t>Engineering Education and Cloud-Based Digital Twins for Electric Power Drive System Diagnostics</t>
+  </si>
+  <si>
+    <t>Rassudov et al.</t>
+  </si>
+  <si>
+    <t>International Workshop on Electric Drives: Improving Reliability of Electric Drives</t>
+  </si>
+  <si>
+    <t>A review of digital twin in product design and development</t>
+  </si>
+  <si>
+    <t>Lo et al.</t>
+  </si>
+  <si>
+    <t>Advanced Engineering Informatics</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Digital Twins by Study and Engineering</t>
+  </si>
+  <si>
+    <t>South Florida Journal of Development</t>
+  </si>
+  <si>
+    <t>Education as a way to create skills in the knowledge economy using the example of BIM technologies in the era of digital twins and digital pedagogy (EDTECH)</t>
+  </si>
+  <si>
+    <t>Pokusaev et al.</t>
+  </si>
+  <si>
+    <t>International Journal of Open Information Technologies</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Digital Twins Enabled Remote Laboratory Learning Experience for Mechatronics Education</t>
+  </si>
+  <si>
+    <t>Guc et al.</t>
+  </si>
+  <si>
+    <t>International Conference on Digital Twins and Parallel Intelligence</t>
+  </si>
+  <si>
+    <t>Engineering Education (Mechatronics)</t>
+  </si>
+  <si>
+    <t>Digital Twins for Personalized Education and Lifelong Learning</t>
+  </si>
+  <si>
+    <t>Kinsner</t>
+  </si>
+  <si>
+    <t>Canadian Conference on Electrical and Computer Engineering (CCECE)</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>STEAM activities for civil engineering curricula. From Calculus to Digital Twins</t>
+  </si>
+  <si>
+    <t>Chacón and Estela</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IEEE Frontiers in Education Conference (FIE)</t>
+  </si>
+  <si>
+    <t>Digital Twins of Building Physics Experimental Laboratory Setups for Effective E-learning</t>
+  </si>
+  <si>
+    <t>Johra et al.</t>
+  </si>
+  <si>
+    <t>Journal of Physics</t>
+  </si>
+  <si>
+    <t>Digital Visual Sensing Design Teaching Using Digital Twins</t>
+  </si>
+  <si>
+    <t>Lian and Yan</t>
+  </si>
+  <si>
+    <t>ReImagine Lab: Bridging the Gap Between Hands-On, Virtual and Remote Control Engineering Laboratories Using Digital Twins and Extended Reality</t>
+  </si>
+  <si>
+    <t>Alsaleh et al.</t>
+  </si>
+  <si>
+    <t>Digital Twins in Contemporary Education: Virtual Workshop</t>
+  </si>
+  <si>
+    <t>Balyakin et al.</t>
+  </si>
+  <si>
+    <t>Perspectives and Trends in Education and Technology</t>
+  </si>
+  <si>
+    <t>Applying Digital Twin Technology in Higher Education: An Automation Line Case Study</t>
+  </si>
+  <si>
+    <t>Eriksson et al.</t>
+  </si>
+  <si>
+    <t>Engineering Educaiton</t>
+  </si>
+  <si>
+    <t>The role of Digital Twin technology in transforming engineering education</t>
+  </si>
+  <si>
+    <t>Maksimović and Davidović</t>
+  </si>
+  <si>
+    <t>Online (Remote) Teaching for Laboratory Based Courses Using “Digital Twins” of the Experiments</t>
+  </si>
+  <si>
+    <t>Deniz et al.</t>
+  </si>
+  <si>
+    <t>Journal of Engineering for Gas Turbines and Power</t>
+  </si>
+  <si>
+    <t>Transformation of education through Big Data: digital twins case study</t>
+  </si>
+  <si>
+    <t>Andreasyan and Balyakin</t>
+  </si>
+  <si>
+    <t>Digital twins as education support in construction: a first development framework based on the Reference Construction Site Aachen West</t>
+  </si>
+  <si>
+    <t>Dai and Brell-Çokcan</t>
+  </si>
+  <si>
+    <t>Construction Robotics</t>
+  </si>
+  <si>
+    <t>Common Educational Teleoperation Platform for Robotics Utilizing Digital Twins</t>
+  </si>
+  <si>
+    <t>Kaarlela et al.</t>
+  </si>
+  <si>
+    <t>Using mixed reality based digital twins for robotics education</t>
+  </si>
+  <si>
+    <t>Orsolits et al.</t>
+  </si>
+  <si>
+    <t>International Symposium on Mixed and Augmented Reality Adjunct</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1084,6 +1247,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1100,10 +1266,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1426,27 +1588,28 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" style="10" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="7" width="15.21875" style="1" customWidth="1"/>
-    <col min="8" max="10" width="24.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8" max="10" width="24.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="46" style="1" customWidth="1"/>
     <col min="12" max="12" width="39.5546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="65" style="1" customWidth="1"/>
-    <col min="14" max="14" width="80.21875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="80.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="73.5546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="41.77734375" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="8.77734375" style="1"/>
+    <col min="16" max="16" width="41.6640625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="7" customFormat="1" ht="84" x14ac:dyDescent="0.4">
@@ -1677,7 +1840,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1912,7 +2075,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1957,7 +2120,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -2081,7 +2244,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -2198,25 +2361,25 @@
         <v>174</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>281</v>
+        <v>175</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>282</v>
+        <v>177</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>283</v>
+        <v>178</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>284</v>
+        <v>179</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>285</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="126" customHeight="1" x14ac:dyDescent="0.3">
@@ -2225,10 +2388,10 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>287</v>
+        <v>181</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>288</v>
+        <v>182</v>
       </c>
       <c r="E18" s="2">
         <v>2024</v>
@@ -2237,43 +2400,43 @@
         <v>29</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>289</v>
+        <v>183</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>137</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>290</v>
+        <v>184</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>64</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>291</v>
+        <v>185</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>292</v>
+        <v>186</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>293</v>
+        <v>187</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>96</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>295</v>
+        <v>189</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>296</v>
+        <v>190</v>
       </c>
       <c r="E19" s="2">
         <v>2024</v>
@@ -2282,123 +2445,282 @@
         <v>81</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>297</v>
+        <v>191</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>298</v>
+        <v>192</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>299</v>
+        <v>193</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K21" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C22" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C23" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C24" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -2429,13 +2751,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="E27" s="2">
         <v>2018</v>
@@ -2444,29 +2766,29 @@
         <v>29</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>182</v>
+        <v>254</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>184</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
@@ -2475,10 +2797,10 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="E28" s="2">
         <v>2018</v>
@@ -2487,16 +2809,16 @@
         <v>29</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>43</v>
@@ -2505,13 +2827,13 @@
         <v>43</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
@@ -2520,10 +2842,10 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>190</v>
+        <v>266</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="E29" s="2">
         <v>2018</v>
@@ -2532,27 +2854,27 @@
         <v>29</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>196</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="72" x14ac:dyDescent="0.3">
@@ -2561,10 +2883,10 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>197</v>
+        <v>273</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>198</v>
+        <v>274</v>
       </c>
       <c r="E30" s="2">
         <v>2018</v>
@@ -2573,26 +2895,26 @@
         <v>29</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>117</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>202</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="72" x14ac:dyDescent="0.3">
@@ -2601,10 +2923,10 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>203</v>
+        <v>279</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>204</v>
+        <v>280</v>
       </c>
       <c r="E31" s="2">
         <v>2019</v>
@@ -2613,16 +2935,16 @@
         <v>29</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>205</v>
+        <v>281</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>206</v>
+        <v>282</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>207</v>
+        <v>283</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>208</v>
+        <v>284</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>43</v>
@@ -2634,7 +2956,7 @@
         <v>43</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
@@ -2643,10 +2965,10 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="E32" s="2">
         <v>2020</v>
@@ -2655,27 +2977,27 @@
         <v>29</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="P32" s="2" t="s">
-        <v>215</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
@@ -2684,10 +3006,10 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="E33" s="2">
         <v>2020</v>
@@ -2714,10 +3036,10 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="1" t="s">
-        <v>218</v>
+        <v>294</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>219</v>
+        <v>295</v>
       </c>
       <c r="E34" s="2">
         <v>2020</v>
@@ -2726,7 +3048,7 @@
         <v>29</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>21</v>
@@ -2738,16 +3060,16 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>34</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>221</v>
+        <v>297</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>222</v>
+        <v>298</v>
       </c>
       <c r="E35" s="2">
         <v>2020</v>
@@ -2756,10 +3078,10 @@
         <v>29</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>223</v>
+        <v>299</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>224</v>
+        <v>300</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2774,10 +3096,10 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>225</v>
+        <v>301</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>226</v>
+        <v>302</v>
       </c>
       <c r="E36" s="2">
         <v>2021</v>
@@ -2786,10 +3108,10 @@
         <v>29</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2804,10 +3126,10 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>230</v>
+        <v>306</v>
       </c>
       <c r="E37" s="2">
         <v>2021</v>
@@ -2816,7 +3138,7 @@
         <v>29</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -2834,10 +3156,10 @@
         <v>16</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="E38" s="2">
         <v>2021</v>
@@ -2846,19 +3168,21 @@
         <v>29</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>234</v>
+        <v>310</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>206</v>
+        <v>282</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>235</v>
+        <v>311</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L38" s="2"/>
+      <c r="L38" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
@@ -2868,10 +3192,10 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="E39" s="2">
         <v>2021</v>
@@ -2880,14 +3204,14 @@
         <v>29</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>237</v>
+        <v>313</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>43</v>
@@ -2904,10 +3228,10 @@
         <v>16</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>238</v>
+        <v>314</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>239</v>
+        <v>315</v>
       </c>
       <c r="E40" s="2">
         <v>2021</v>
@@ -2916,14 +3240,14 @@
         <v>29</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -2936,10 +3260,10 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>242</v>
+        <v>318</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>243</v>
+        <v>319</v>
       </c>
       <c r="E41" s="2">
         <v>2021</v>
@@ -2948,10 +3272,10 @@
         <v>29</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>245</v>
+        <v>321</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
@@ -2968,10 +3292,10 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>246</v>
+        <v>322</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="E42" s="2">
         <v>2021</v>
@@ -2980,14 +3304,14 @@
         <v>29</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>248</v>
+        <v>324</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -3000,10 +3324,10 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>251</v>
+        <v>327</v>
       </c>
       <c r="E43" s="2">
         <v>2021</v>
@@ -3012,7 +3336,7 @@
         <v>29</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>252</v>
+        <v>328</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>21</v>
@@ -3030,10 +3354,10 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>253</v>
+        <v>329</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>254</v>
+        <v>330</v>
       </c>
       <c r="E44" s="2">
         <v>2021</v>
@@ -3042,7 +3366,7 @@
         <v>29</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>255</v>
+        <v>331</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>21</v>
@@ -3060,10 +3384,10 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="E45" s="2">
         <v>2022</v>
@@ -3072,7 +3396,7 @@
         <v>29</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>21</v>
@@ -3090,10 +3414,10 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>258</v>
+        <v>334</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="E46" s="2">
         <v>2022</v>
@@ -3118,10 +3442,10 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>260</v>
+        <v>336</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>261</v>
+        <v>337</v>
       </c>
       <c r="E47" s="2">
         <v>2022</v>
@@ -3130,7 +3454,7 @@
         <v>29</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>21</v>
@@ -3148,10 +3472,10 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>263</v>
+        <v>339</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="E48" s="2">
         <v>2022</v>
@@ -3161,7 +3485,7 @@
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -3175,10 +3499,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>266</v>
+        <v>342</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="E49" s="1">
         <v>2022</v>
@@ -3187,7 +3511,7 @@
         <v>29</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -3195,10 +3519,10 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="E50" s="1">
         <v>2022</v>
@@ -3207,10 +3531,10 @@
         <v>29</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>270</v>
+        <v>346</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -3218,10 +3542,10 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>272</v>
+        <v>348</v>
       </c>
       <c r="E51" s="1">
         <v>2022</v>
@@ -3230,10 +3554,10 @@
         <v>29</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>255</v>
+        <v>331</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
@@ -3241,10 +3565,10 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>273</v>
+        <v>349</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>274</v>
+        <v>350</v>
       </c>
       <c r="E52" s="1">
         <v>2022</v>
@@ -3253,10 +3577,10 @@
         <v>29</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>275</v>
+        <v>351</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -3264,10 +3588,10 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>276</v>
+        <v>352</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>277</v>
+        <v>353</v>
       </c>
       <c r="E53" s="1">
         <v>2022</v>
@@ -3279,7 +3603,7 @@
         <v>93</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -3287,10 +3611,10 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>278</v>
+        <v>354</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
       <c r="E54" s="1">
         <v>2022</v>
@@ -3299,10 +3623,10 @@
         <v>29</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>280</v>
+        <v>356</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3321,8 +3645,10 @@
     <hyperlink ref="D16" r:id="rId12" xr:uid="{823CCB23-0F27-49F2-AD4F-1D847A982521}"/>
     <hyperlink ref="D17" r:id="rId13" xr:uid="{74252E24-8E7B-4375-9B52-12A4F9E0F97E}"/>
     <hyperlink ref="D18" r:id="rId14" xr:uid="{1404EC86-641C-4A50-A52B-56DEAF8B198E}"/>
+    <hyperlink ref="D23" r:id="rId15" xr:uid="{027A8816-CE01-42A2-9EB1-A5B8F914CD2F}"/>
+    <hyperlink ref="D24" r:id="rId16" xr:uid="{692D79BF-1B04-4D53-8B69-F24CFAB49916}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>